--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_era/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_era/expected_result.xlsx
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-80594.8</v>
+        <v>-81801.64</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-42411.08</v>
+        <v>-38293.06</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-78695.47</v>
+        <v>-60928.02</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
     </row>
     <row r="3">
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>156712.76</v>
+        <v>126416.96</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>179997.28</v>
+        <v>165690.46</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="4">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-68241.46000000001</v>
+        <v>-66810.42999999999</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-33914.8</v>
+        <v>-38819.41</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-74540.72</v>
+        <v>-73376.16</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
     </row>
     <row r="5">
@@ -555,16 +555,16 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>877299.37</v>
+        <v>892750.23</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>487534.98</v>
+        <v>521104.54</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>896175.03</v>
+        <v>840546.9</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="6">
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-40760.51</v>
+        <v>-32211.18</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-15415.18</v>
+        <v>-15438.74</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-31910.83</v>
+        <v>-33069.4</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
     </row>
     <row r="7">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>-80101.53</v>
+        <v>-82469.08</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-33280.63</v>
+        <v>-31167.05</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-72084.61</v>
+        <v>-76872.91</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
     </row>
     <row r="8">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>-33927.61</v>
+        <v>-32168.74</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-27435.22</v>
+        <v>-31931.7</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="9">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>-94678.56</v>
+        <v>-102411.74</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-50171.63</v>
+        <v>-54028.1</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-101934.03</v>
+        <v>-123307.01</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
     </row>
     <row r="10">
@@ -650,16 +650,16 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>-49509.34</v>
+        <v>-58558.86</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-56552.17</v>
+        <v>-54895.93</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
     </row>
     <row r="11">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>390925.48</v>
+        <v>384725.52</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>185663.38</v>
+        <v>185434.74</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>392668.95</v>
+        <v>395603.59</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
     </row>
     <row r="12">
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>-390925.48</v>
+        <v>-384725.52</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-392668.95</v>
+        <v>-395603.59</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
     </row>
     <row r="13">
@@ -707,16 +707,16 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>-29082.73</v>
+        <v>-34618.25</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-29847.38</v>
+        <v>-32754.63</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="14">
@@ -726,16 +726,16 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>166797.17</v>
+        <v>157971.31</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>211043.92</v>
+        <v>179165.33</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="15">
@@ -745,16 +745,16 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>723912.76</v>
+        <v>686088.58</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>814215.8</v>
+        <v>698266.9300000001</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
